--- a/Data/Commodore 64 Breadbin/Data.xlsx
+++ b/Data/Commodore 64 Breadbin/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\Data\Commodore 64 Breadbin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 64 Breadbin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B810743-870D-4CBF-B3D5-9487C1F25198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A4E81E-56AE-4ADA-8AD0-D3CFD3D53A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,27 +447,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:2" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>250425</v>
-      </c>
-      <c r="B4" s="1">
-        <v>250425</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>250425</v>
+      </c>
+      <c r="B5" s="1">
+        <v>250425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>250407</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
